--- a/Output/emissions_table.xlsx
+++ b/Output/emissions_table.xlsx
@@ -533,12 +533,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>596.0 (0.8)</t>
+          <t>758.0 (0.44)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>667.0 (0.57)</t>
+          <t>748.0 (0.39)</t>
         </is>
       </c>
     </row>
@@ -556,12 +556,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>469.0 (0.76)</t>
+          <t>624.0 (0.56)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>533.0 (0.53)</t>
+          <t>611.0 (0.43)</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>336.0 (0.56)</t>
+          <t>455.0 (0.39)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>395.0 (0.43)</t>
+          <t>455.0 (0.34)</t>
         </is>
       </c>
     </row>
@@ -606,12 +606,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>716.0 (0.59)</t>
+          <t>920.0 (0.34)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>777.0 (0.49)</t>
+          <t>880.0 (0.37)</t>
         </is>
       </c>
     </row>
@@ -629,12 +629,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>551.0 (0.43)</t>
+          <t>766.0 (0.26)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>594.0 (0.38)</t>
+          <t>702.0 (0.3)</t>
         </is>
       </c>
     </row>
@@ -652,12 +652,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>397.0 (0.35)</t>
+          <t>627.0 (0.22)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>413.0 (0.33)</t>
+          <t>528.0 (0.26)</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>594.0 (1.04)</t>
+          <t>757.0 (0.51)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>677.0 (0.68)</t>
+          <t>759.0 (0.42)</t>
         </is>
       </c>
     </row>
@@ -702,12 +702,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>459.0 (0.81)</t>
+          <t>604.0 (0.52)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>539.0 (0.55)</t>
+          <t>612.0 (0.4)</t>
         </is>
       </c>
     </row>
@@ -725,12 +725,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>348.0 (0.61)</t>
+          <t>485.0 (1.33)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>403.0 (0.46)</t>
+          <t>472.0 (0.82)</t>
         </is>
       </c>
     </row>
